--- a/ELM/SLR_arissetyawan_16_feb_2019.xlsx
+++ b/ELM/SLR_arissetyawan_16_feb_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Pembobotan Input ELM (list)" sheetId="1" r:id="rId1"/>
@@ -11261,8 +11261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH298"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28843,8 +28843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
